--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_MEXICO_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_MEXICO_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D894"/>
+  <dimension ref="A1:D888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C37">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C69">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="75">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C80">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="D90">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="91">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C110">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C118">
@@ -2114,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="133">
@@ -2294,7 +2294,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C163">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C177">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C180">
@@ -2831,13 +2831,13 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C187">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C188">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C190">
@@ -2896,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="192">
@@ -3006,12 +3006,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C200">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C202">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C206">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C215">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C218">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C223">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C228">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C233">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C238">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C243">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C253">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C259">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C263">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C269">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C273">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C281">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C286">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C291">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C295">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C305">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C312">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C314">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C331">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C341">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C347">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C356">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5144,13 +5144,13 @@
         <v>8</v>
       </c>
       <c r="D362">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C363">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C369">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C373">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C384">
@@ -5456,7 +5456,7 @@
         <v>82</v>
       </c>
       <c r="D386">
-        <v>0.009264489888148231</v>
+        <v>0.009264489888148233</v>
       </c>
     </row>
     <row r="387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C390">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C397">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C404">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C409">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C416">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C421">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C424">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C433">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C435">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C449">
@@ -6767,7 +6767,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C487">
@@ -7136,7 +7136,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C515">
@@ -7245,7 +7245,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C523">
@@ -7284,7 +7284,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C526">
@@ -7349,7 +7349,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C531">
@@ -7369,7 +7369,7 @@
         <v>8</v>
       </c>
       <c r="D532">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="533">
@@ -7536,7 +7536,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C545">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C547">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,14 +7658,14 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C554">
         <v>8</v>
       </c>
       <c r="D554">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="555">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C561">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C573">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C577">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C591">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C599">
@@ -8339,7 +8339,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C606">
@@ -8482,7 +8482,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C617">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C619">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C622">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C627">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C629">
@@ -8716,20 +8716,20 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C635">
         <v>8</v>
       </c>
       <c r="D635">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C636">
@@ -8768,7 +8768,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C639">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C651">
@@ -8955,7 +8955,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C653">
@@ -9007,7 +9007,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C657">
@@ -9033,7 +9033,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C659">
@@ -9072,7 +9072,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C662">
@@ -9199,7 +9199,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C671">
@@ -9303,7 +9303,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C679">
@@ -9349,7 +9349,7 @@
         <v>8</v>
       </c>
       <c r="D682">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="683">
@@ -9368,7 +9368,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C684">
@@ -9433,7 +9433,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9498,7 +9498,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C694">
@@ -9524,7 +9524,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C696">
@@ -9653,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="D705">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="706">
@@ -9905,7 +9905,7 @@
         <v>8</v>
       </c>
       <c r="D724">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="725">
@@ -10015,7 +10015,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C733">
@@ -10331,7 +10331,7 @@
         <v>8</v>
       </c>
       <c r="D756">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="757">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C760">
@@ -10433,7 +10433,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C764">
@@ -10459,7 +10459,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C766">
@@ -10531,7 +10531,7 @@
         <v>8</v>
       </c>
       <c r="D771">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="772">
@@ -10744,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="D787">
-        <v>0.0009038526720144617</v>
+        <v>0.0009038526720144616</v>
       </c>
     </row>
     <row r="788">
@@ -10763,7 +10763,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C789">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C802">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C809">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C810">
@@ -11166,7 +11166,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C820">
@@ -11244,7 +11244,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C826">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C827">
@@ -11540,7 +11540,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C848">
@@ -11657,7 +11657,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C857">
@@ -11761,7 +11761,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C865">
@@ -11774,7 +11774,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C866">
@@ -11787,7 +11787,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C867">
@@ -11930,7 +11930,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C878">
@@ -11943,7 +11943,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C879">
@@ -11982,7 +11982,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C882">
@@ -12068,41 +12068,6 @@
       </c>
       <c r="D888">
         <v>1</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
